--- a/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
+++ b/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wv_deaths_in_custody\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37619CF6-0B31-42D2-A0C1-209AA7BBBBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170FB68-A943-4FDB-B2C7-DCE7F55F770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26925" yWindow="3600" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="867">
   <si>
     <t>1/15/2020</t>
   </si>
@@ -1970,9 +1970,6 @@
   </si>
   <si>
     <t>23-F-345</t>
-  </si>
-  <si>
-    <t>|PTF Pretrial Felon</t>
   </si>
   <si>
     <t>4/30/2024</t>
@@ -2636,12 +2633,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2718,24 +2722,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
@@ -3244,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3340,7 +3345,7 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3436,7 +3441,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3468,7 +3473,7 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3532,7 +3537,7 @@
         <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3628,7 +3633,7 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3660,7 +3665,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3692,7 +3697,7 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3788,7 +3793,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3884,7 +3889,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3948,7 +3953,7 @@
         <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4108,7 +4113,7 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4140,7 +4145,7 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4300,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4408,7 +4413,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>3</v>
@@ -4653,7 +4658,7 @@
         <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4909,7 +4914,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4941,7 +4946,7 @@
         <v>40</v>
       </c>
       <c r="J60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5069,7 +5074,7 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5165,7 +5170,7 @@
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5293,7 +5298,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5453,7 +5458,7 @@
         <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5517,7 +5522,7 @@
         <v>8</v>
       </c>
       <c r="J78" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5646,7 +5651,7 @@
         <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5710,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -10633,8 +10638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13432EB9-12D1-461D-8E87-0C40A7048F1D}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10665,7 +10670,7 @@
         <v>505</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>501</v>
@@ -11048,7 +11053,7 @@
         <v>635</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>612</v>
@@ -11170,19 +11175,19 @@
       <c r="K14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>648</v>
+      <c r="L14" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>2</v>
@@ -11194,10 +11199,10 @@
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>19</v>
@@ -11214,13 +11219,13 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -11235,7 +11240,7 @@
         <v>376</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>242</v>
@@ -11252,13 +11257,13 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
@@ -11273,7 +11278,7 @@
         <v>301</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>248</v>
@@ -11290,13 +11295,13 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -11311,7 +11316,7 @@
         <v>297</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>242</v>
@@ -11328,28 +11333,28 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>393</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>83</v>
@@ -11366,28 +11371,28 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>430</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>248</v>
@@ -11404,13 +11409,13 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
@@ -11425,7 +11430,7 @@
         <v>391</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>242</v>
@@ -11442,13 +11447,13 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -11460,10 +11465,10 @@
         <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>50</v>
@@ -11480,13 +11485,13 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -11501,7 +11506,7 @@
         <v>373</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>289</v>
@@ -11518,13 +11523,13 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
@@ -11539,7 +11544,7 @@
         <v>349</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>248</v>
@@ -11556,13 +11561,13 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
@@ -11574,10 +11579,10 @@
         <v>183</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>345</v>
@@ -11594,13 +11599,13 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
@@ -11612,10 +11617,10 @@
         <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -11632,13 +11637,13 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -11653,7 +11658,7 @@
         <v>282</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>289</v>
@@ -11670,14 +11675,14 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
@@ -11685,13 +11690,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>242</v>
@@ -11708,13 +11713,13 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
@@ -11729,7 +11734,7 @@
         <v>430</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>47</v>
@@ -11746,13 +11751,13 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>2</v>
@@ -11764,10 +11769,10 @@
         <v>205</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>242</v>
@@ -11784,13 +11789,13 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
@@ -11805,7 +11810,7 @@
         <v>349</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>12</v>
@@ -11822,13 +11827,13 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -11840,10 +11845,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>248</v>
@@ -11860,13 +11865,13 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -11881,7 +11886,7 @@
         <v>337</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>242</v>
@@ -11901,10 +11906,10 @@
         <v>45594</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -11919,7 +11924,7 @@
         <v>458</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>242</v>
@@ -11936,13 +11941,13 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -11957,7 +11962,7 @@
         <v>422</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>248</v>
@@ -11974,13 +11979,13 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>2</v>
@@ -11995,7 +12000,7 @@
         <v>285</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>242</v>
@@ -12012,28 +12017,28 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>50</v>
@@ -12050,13 +12055,13 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -12071,7 +12076,7 @@
         <v>430</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>248</v>
@@ -12088,13 +12093,13 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -12106,10 +12111,10 @@
         <v>336</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>12</v>
@@ -12118,7 +12123,7 @@
         <v>208</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>40</v>
@@ -12126,13 +12131,13 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
@@ -12147,7 +12152,7 @@
         <v>346</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>47</v>
@@ -12156,7 +12161,7 @@
         <v>154</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
@@ -12164,13 +12169,13 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
@@ -12185,7 +12190,7 @@
         <v>301</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>50</v>
@@ -12194,7 +12199,7 @@
         <v>208</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>54</v>
@@ -12202,13 +12207,13 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
@@ -12223,7 +12228,7 @@
         <v>634</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>83</v>
@@ -12240,13 +12245,13 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>2</v>
@@ -12258,10 +12263,10 @@
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>303</v>
@@ -12278,13 +12283,13 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -12299,7 +12304,7 @@
         <v>282</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>74</v>
@@ -12308,7 +12313,7 @@
         <v>208</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>54</v>
@@ -12316,13 +12321,13 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
@@ -12337,7 +12342,7 @@
         <v>349</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>248</v>
@@ -12354,13 +12359,13 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -12375,7 +12380,7 @@
         <v>376</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>242</v>
@@ -12384,7 +12389,7 @@
         <v>208</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>244</v>
@@ -12428,7 +12433,7 @@
         <v>505</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>501</v>
@@ -12445,13 +12450,13 @@
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -12466,7 +12471,7 @@
         <v>422</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>248</v>
@@ -12483,13 +12488,13 @@
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -12501,10 +12506,10 @@
         <v>336</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>248</v>
@@ -12521,13 +12526,13 @@
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -12542,10 +12547,10 @@
         <v>282</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -12559,13 +12564,13 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -12580,7 +12585,7 @@
         <v>346</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>47</v>
@@ -12597,13 +12602,13 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -12618,7 +12623,7 @@
         <v>290</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -12635,13 +12640,13 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -12656,7 +12661,7 @@
         <v>349</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>345</v>
@@ -12673,13 +12678,13 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -12694,7 +12699,7 @@
         <v>349</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -12711,13 +12716,13 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -12732,7 +12737,7 @@
         <v>297</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>242</v>
@@ -12749,13 +12754,13 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -12770,10 +12775,10 @@
         <v>373</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>208</v>
@@ -12787,13 +12792,13 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -12808,7 +12813,7 @@
         <v>349</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>242</v>
@@ -12840,24 +12845,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>840</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>842</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12865,10 +12870,10 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12876,10 +12881,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>845</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12887,10 +12892,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12898,10 +12903,10 @@
         <v>289</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12909,10 +12914,10 @@
         <v>596</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>849</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12920,10 +12925,10 @@
         <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12931,10 +12936,10 @@
         <v>440</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12942,10 +12947,10 @@
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12953,10 +12958,10 @@
         <v>345</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12964,10 +12969,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12975,21 +12980,21 @@
         <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -12997,21 +13002,21 @@
         <v>303</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13019,10 +13024,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13030,10 +13035,10 @@
         <v>248</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13041,10 +13046,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13052,10 +13057,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13063,10 +13068,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13074,10 +13079,10 @@
         <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
+++ b/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wv_deaths_in_custody\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170FB68-A943-4FDB-B2C7-DCE7F55F770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0671527-6872-4324-9FF1-C6E206545DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26925" yWindow="3600" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="864">
   <si>
     <t>1/15/2020</t>
   </si>
@@ -1864,12 +1864,6 @@
     <t>23-M-35/23-F-23</t>
   </si>
   <si>
-    <t>TOD</t>
-  </si>
-  <si>
-    <t>Drug/alcohol Intoxication</t>
-  </si>
-  <si>
     <t>2/24/2024</t>
   </si>
   <si>
@@ -2279,9 +2273,6 @@
   </si>
   <si>
     <t>20-F-5; 23-M25F-00208;23-M20F-01109;24- M20M-07059; 23-M25F-00150</t>
-  </si>
-  <si>
-    <t>Other unknown</t>
   </si>
   <si>
     <t>11/21/2023</t>
@@ -2633,12 +2624,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2722,24 +2720,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3249,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3345,7 +3344,7 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3441,7 +3440,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3473,7 +3472,7 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3537,7 +3536,7 @@
         <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3633,7 +3632,7 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3665,7 +3664,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3697,7 +3696,7 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3793,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3889,7 +3888,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3953,7 +3952,7 @@
         <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4113,7 +4112,7 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4145,7 +4144,7 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4305,7 +4304,7 @@
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4412,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>3</v>
@@ -4658,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4914,7 +4913,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4946,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="J60" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5074,7 +5073,7 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5170,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5298,7 +5297,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5458,7 +5457,7 @@
         <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5522,7 +5521,7 @@
         <v>8</v>
       </c>
       <c r="J78" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5651,7 +5650,7 @@
         <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -5715,7 +5714,7 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -10638,13 +10637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13432EB9-12D1-461D-8E87-0C40A7048F1D}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -10670,7 +10671,7 @@
         <v>505</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>501</v>
@@ -10865,11 +10866,11 @@
       <c r="I6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>612</v>
+      <c r="J6" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>613</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
@@ -10877,13 +10878,13 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -10898,7 +10899,7 @@
         <v>441</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>248</v>
@@ -10907,7 +10908,7 @@
         <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>244</v>
@@ -10915,13 +10916,13 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -10936,7 +10937,7 @@
         <v>346</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>242</v>
@@ -10953,13 +10954,13 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>625</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -10974,7 +10975,7 @@
         <v>301</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>248</v>
@@ -10991,13 +10992,13 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -11012,7 +11013,7 @@
         <v>460</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>248</v>
@@ -11029,13 +11030,13 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -11047,19 +11048,19 @@
         <v>107</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>612</v>
+        <v>778</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>613</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>244</v>
@@ -11067,13 +11068,13 @@
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -11088,7 +11089,7 @@
         <v>349</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>242</v>
@@ -11105,13 +11106,13 @@
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -11126,7 +11127,7 @@
         <v>430</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>47</v>
@@ -11135,7 +11136,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>613</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
@@ -11143,13 +11144,13 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -11164,7 +11165,7 @@
         <v>381</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>242</v>
@@ -11181,13 +11182,13 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>2</v>
@@ -11199,10 +11200,10 @@
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>19</v>
@@ -11219,13 +11220,13 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -11240,7 +11241,7 @@
         <v>376</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>242</v>
@@ -11257,13 +11258,13 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
@@ -11278,7 +11279,7 @@
         <v>301</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>248</v>
@@ -11295,13 +11296,13 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -11316,7 +11317,7 @@
         <v>297</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>242</v>
@@ -11333,28 +11334,28 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>393</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>83</v>
@@ -11371,28 +11372,28 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>430</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>248</v>
@@ -11409,13 +11410,13 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
@@ -11430,7 +11431,7 @@
         <v>391</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>242</v>
@@ -11447,13 +11448,13 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -11465,10 +11466,10 @@
         <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>50</v>
@@ -11477,7 +11478,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>613</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
@@ -11485,13 +11486,13 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -11506,7 +11507,7 @@
         <v>373</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>289</v>
@@ -11523,13 +11524,13 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
@@ -11544,7 +11545,7 @@
         <v>349</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>248</v>
@@ -11561,13 +11562,13 @@
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
@@ -11579,10 +11580,10 @@
         <v>183</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>345</v>
@@ -11599,13 +11600,13 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
@@ -11617,10 +11618,10 @@
         <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -11637,13 +11638,13 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>701</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -11658,7 +11659,7 @@
         <v>282</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>289</v>
@@ -11675,14 +11676,14 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
       </c>
@@ -11690,13 +11691,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>349</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>242</v>
@@ -11713,13 +11714,13 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
@@ -11734,7 +11735,7 @@
         <v>430</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>47</v>
@@ -11751,13 +11752,13 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>2</v>
@@ -11769,10 +11770,10 @@
         <v>205</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>242</v>
@@ -11789,13 +11790,13 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
@@ -11810,7 +11811,7 @@
         <v>349</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>12</v>
@@ -11827,13 +11828,13 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -11845,10 +11846,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>248</v>
@@ -11865,13 +11866,13 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -11886,7 +11887,7 @@
         <v>337</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>242</v>
@@ -11906,10 +11907,10 @@
         <v>45594</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -11924,7 +11925,7 @@
         <v>458</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>242</v>
@@ -11941,13 +11942,13 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -11962,7 +11963,7 @@
         <v>422</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>248</v>
@@ -11979,13 +11980,13 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>2</v>
@@ -12000,7 +12001,7 @@
         <v>285</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>242</v>
@@ -12017,28 +12018,28 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>50</v>
@@ -12055,13 +12056,13 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -12076,7 +12077,7 @@
         <v>430</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>248</v>
@@ -12093,13 +12094,13 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -12111,10 +12112,10 @@
         <v>336</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>12</v>
@@ -12123,7 +12124,7 @@
         <v>208</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>751</v>
+        <v>209</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>40</v>
@@ -12131,13 +12132,13 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
@@ -12152,7 +12153,7 @@
         <v>346</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>47</v>
@@ -12161,7 +12162,7 @@
         <v>154</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
@@ -12169,13 +12170,13 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
@@ -12190,7 +12191,7 @@
         <v>301</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>50</v>
@@ -12199,7 +12200,7 @@
         <v>208</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>751</v>
+        <v>209</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>54</v>
@@ -12207,13 +12208,13 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
@@ -12225,10 +12226,10 @@
         <v>274</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>83</v>
@@ -12245,13 +12246,13 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>2</v>
@@ -12263,10 +12264,10 @@
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>303</v>
@@ -12283,13 +12284,13 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -12304,7 +12305,7 @@
         <v>282</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>74</v>
@@ -12313,7 +12314,7 @@
         <v>208</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>751</v>
+        <v>209</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>54</v>
@@ -12321,13 +12322,13 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
@@ -12342,7 +12343,7 @@
         <v>349</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>248</v>
@@ -12359,13 +12360,13 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -12380,7 +12381,7 @@
         <v>376</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>242</v>
@@ -12389,7 +12390,7 @@
         <v>208</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>751</v>
+        <v>209</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>244</v>
@@ -12433,7 +12434,7 @@
         <v>505</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>501</v>
@@ -12450,13 +12451,13 @@
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -12471,7 +12472,7 @@
         <v>422</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>248</v>
@@ -12488,13 +12489,13 @@
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -12506,10 +12507,10 @@
         <v>336</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>248</v>
@@ -12526,13 +12527,13 @@
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -12547,10 +12548,10 @@
         <v>282</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -12564,13 +12565,13 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -12585,7 +12586,7 @@
         <v>346</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>47</v>
@@ -12602,13 +12603,13 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -12623,7 +12624,7 @@
         <v>290</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
@@ -12640,13 +12641,13 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -12661,7 +12662,7 @@
         <v>349</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>345</v>
@@ -12678,13 +12679,13 @@
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -12699,7 +12700,7 @@
         <v>349</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
@@ -12716,13 +12717,13 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -12737,7 +12738,7 @@
         <v>297</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>242</v>
@@ -12754,13 +12755,13 @@
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -12775,10 +12776,10 @@
         <v>373</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>208</v>
@@ -12792,13 +12793,13 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -12813,7 +12814,7 @@
         <v>349</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>242</v>
@@ -12845,24 +12846,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12870,10 +12871,10 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,10 +12882,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12892,10 +12893,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,10 +12904,10 @@
         <v>289</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -12914,10 +12915,10 @@
         <v>596</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -12925,10 +12926,10 @@
         <v>326</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12936,10 +12937,10 @@
         <v>440</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12947,10 +12948,10 @@
         <v>242</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -12958,10 +12959,10 @@
         <v>345</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,10 +12970,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12980,21 +12981,21 @@
         <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13002,21 +13003,21 @@
         <v>303</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13024,10 +13025,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13035,10 +13036,10 @@
         <v>248</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13046,10 +13047,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13057,10 +13058,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13068,10 +13069,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13079,10 +13080,10 @@
         <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
+++ b/data/DCR-Deaths-in-Custody-Jan-2020-to-March-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\wv_deaths_in_custody\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0671527-6872-4324-9FF1-C6E206545DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92748C8-78AB-494A-A97E-2D63FD56C8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26925" yWindow="3600" windowWidth="21600" windowHeight="11235" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26925" yWindow="3600" windowWidth="21600" windowHeight="11235" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="858">
   <si>
     <t>1/15/2020</t>
   </si>
@@ -508,9 +508,6 @@
     <t>2/9/2022</t>
   </si>
   <si>
-    <t>74 ☐</t>
-  </si>
-  <si>
     <t>2/13/2022</t>
   </si>
   <si>
@@ -676,9 +673,6 @@
     <t>3/3/2023</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>3/13/2023</t>
   </si>
   <si>
@@ -739,9 +733,6 @@
     <t>8/25/2023</t>
   </si>
   <si>
-    <t>45 50</t>
-  </si>
-  <si>
     <t>9/8/2023</t>
   </si>
   <si>
@@ -970,9 +961,6 @@
     <t>4/24/2009</t>
   </si>
   <si>
-    <t>176</t>
-  </si>
-  <si>
     <t>Doddridge/Wood</t>
   </si>
   <si>
@@ -1510,9 +1498,6 @@
     <t>5/6/2022</t>
   </si>
   <si>
-    <t>153</t>
-  </si>
-  <si>
     <t>7/11/2022</t>
   </si>
   <si>
@@ -1571,9 +1556,6 @@
   </si>
   <si>
     <t>5/21/2014</t>
-  </si>
-  <si>
-    <t>168</t>
   </si>
   <si>
     <t>9/29/2022</t>
@@ -2624,12 +2606,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2720,28 +2709,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3049,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8689B02-D452-42A9-AE38-395E9D5F1AF5}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3061,34 +3054,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" t="s">
         <v>500</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3120,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3152,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3184,7 +3177,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3216,7 +3209,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3248,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3280,7 +3273,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3312,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3344,7 +3337,7 @@
         <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3376,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3408,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3440,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3472,7 +3465,7 @@
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3504,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3536,7 +3529,7 @@
         <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3568,7 +3561,7 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3600,7 +3593,7 @@
         <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3632,7 +3625,7 @@
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3664,7 +3657,7 @@
         <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3696,7 +3689,7 @@
         <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3728,7 +3721,7 @@
         <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3760,7 +3753,7 @@
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3792,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3824,7 +3817,7 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3856,7 +3849,7 @@
         <v>40</v>
       </c>
       <c r="J25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3888,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3920,7 +3913,7 @@
         <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3952,7 +3945,7 @@
         <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -3984,7 +3977,7 @@
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4016,7 +4009,7 @@
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4048,7 +4041,7 @@
         <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4080,7 +4073,7 @@
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4112,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4144,7 +4137,7 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4176,7 +4169,7 @@
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4208,7 +4201,7 @@
         <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4240,7 +4233,7 @@
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4272,7 +4265,7 @@
         <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4304,7 +4297,7 @@
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4337,7 +4330,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4369,7 +4362,7 @@
         <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4401,7 +4394,7 @@
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4412,7 +4405,7 @@
         <v>133</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>3</v>
@@ -4433,7 +4426,7 @@
         <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4465,7 +4458,7 @@
         <v>8</v>
       </c>
       <c r="J45" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4497,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4510,7 +4503,7 @@
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4529,7 +4522,7 @@
         <v>8</v>
       </c>
       <c r="J47" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4561,7 +4554,7 @@
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4593,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4625,7 +4618,7 @@
         <v>40</v>
       </c>
       <c r="J50" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4657,7 +4650,7 @@
         <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4689,7 +4682,7 @@
         <v>8</v>
       </c>
       <c r="J52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4721,7 +4714,7 @@
         <v>54</v>
       </c>
       <c r="J53" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -4737,8 +4730,8 @@
       <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>160</v>
+      <c r="E54" s="12">
+        <v>74</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>74</v>
@@ -4753,24 +4746,24 @@
         <v>40</v>
       </c>
       <c r="J54" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>47</v>
@@ -4785,15 +4778,15 @@
         <v>24</v>
       </c>
       <c r="J55" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>27</v>
@@ -4817,15 +4810,15 @@
         <v>8</v>
       </c>
       <c r="J56" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -4849,24 +4842,24 @@
         <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>47</v>
@@ -4881,15 +4874,15 @@
         <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -4913,24 +4906,24 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>74</v>
@@ -4945,16 +4938,16 @@
         <v>40</v>
       </c>
       <c r="J60" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
@@ -4962,7 +4955,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>74</v>
@@ -4977,15 +4970,15 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -5009,15 +5002,15 @@
         <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -5026,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>74</v>
@@ -5041,15 +5034,15 @@
         <v>8</v>
       </c>
       <c r="J63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -5073,24 +5066,24 @@
         <v>54</v>
       </c>
       <c r="J64" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>50</v>
@@ -5105,15 +5098,15 @@
         <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -5137,12 +5130,12 @@
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>131</v>
@@ -5154,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>23</v>
@@ -5169,15 +5162,15 @@
         <v>8</v>
       </c>
       <c r="J67" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -5201,15 +5194,15 @@
         <v>24</v>
       </c>
       <c r="J68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -5233,15 +5226,15 @@
         <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -5265,16 +5258,16 @@
         <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -5282,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>5</v>
@@ -5297,15 +5290,15 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -5329,15 +5322,15 @@
         <v>68</v>
       </c>
       <c r="J72" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>27</v>
@@ -5361,15 +5354,15 @@
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -5378,7 +5371,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>12</v>
@@ -5393,24 +5386,24 @@
         <v>40</v>
       </c>
       <c r="J74" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>74</v>
@@ -5425,15 +5418,15 @@
         <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -5448,33 +5441,33 @@
         <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>5</v>
@@ -5489,15 +5482,15 @@
         <v>8</v>
       </c>
       <c r="J77" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -5521,12 +5514,12 @@
         <v>8</v>
       </c>
       <c r="J78" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>144</v>
@@ -5537,31 +5530,31 @@
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>216</v>
+      <c r="E79" s="12">
+        <v>48</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J79" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -5585,48 +5578,48 @@
         <v>24</v>
       </c>
       <c r="J80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J81" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -5641,24 +5634,24 @@
         <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -5673,24 +5666,24 @@
         <v>74</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -5705,56 +5698,56 @@
         <v>19</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -5763,62 +5756,62 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J88" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -5826,31 +5819,31 @@
       <c r="D89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>237</v>
+      <c r="E89" s="12">
+        <v>50</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -5865,16 +5858,16 @@
         <v>47</v>
       </c>
       <c r="G90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5887,8 +5880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CCA9B4-E918-4357-88FA-E12F2556D561}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5900,74 +5893,74 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -5979,7 +5972,7 @@
         <v>141</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
@@ -5988,18 +5981,18 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -6011,7 +6004,7 @@
         <v>158</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
@@ -6020,19 +6013,19 @@
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6040,10 +6033,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
@@ -6052,18 +6045,18 @@
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
@@ -6075,7 +6068,7 @@
         <v>91</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -6084,18 +6077,18 @@
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -6107,27 +6100,27 @@
         <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -6139,7 +6132,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
@@ -6148,50 +6141,50 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -6203,7 +6196,7 @@
         <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
@@ -6212,18 +6205,18 @@
         <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -6232,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
@@ -6244,18 +6237,18 @@
         <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -6264,30 +6257,30 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -6296,10 +6289,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
@@ -6308,18 +6301,18 @@
         <v>7</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -6331,39 +6324,39 @@
         <v>141</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
@@ -6372,18 +6365,18 @@
         <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -6392,10 +6385,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
@@ -6404,18 +6397,18 @@
         <v>7</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -6427,27 +6420,27 @@
         <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -6456,10 +6449,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
@@ -6468,10 +6461,10 @@
         <v>7</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -6479,7 +6472,7 @@
         <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -6491,7 +6484,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -6500,18 +6493,18 @@
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -6520,10 +6513,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
@@ -6532,18 +6525,18 @@
         <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -6552,30 +6545,30 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -6584,10 +6577,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>6</v>
@@ -6596,18 +6589,18 @@
         <v>53</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -6615,11 +6608,11 @@
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>314</v>
+      <c r="E23" s="12">
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>6</v>
@@ -6628,18 +6621,18 @@
         <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -6648,30 +6641,30 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -6680,10 +6673,10 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>6</v>
@@ -6692,19 +6685,19 @@
         <v>7</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
@@ -6712,10 +6705,10 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>6</v>
@@ -6724,18 +6717,18 @@
         <v>7</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -6744,10 +6737,10 @@
         <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>6</v>
@@ -6756,18 +6749,18 @@
         <v>7</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -6776,30 +6769,30 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -6808,10 +6801,10 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>6</v>
@@ -6820,18 +6813,18 @@
         <v>53</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -6840,10 +6833,10 @@
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>6</v>
@@ -6852,18 +6845,18 @@
         <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -6875,7 +6868,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>6</v>
@@ -6884,18 +6877,18 @@
         <v>53</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -6904,10 +6897,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>6</v>
@@ -6916,19 +6909,19 @@
         <v>53</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
@@ -6936,10 +6929,10 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>6</v>
@@ -6948,18 +6941,18 @@
         <v>7</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -6968,30 +6961,30 @@
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -7003,7 +6996,7 @@
         <v>91</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
@@ -7012,18 +7005,18 @@
         <v>53</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -7032,10 +7025,10 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>6</v>
@@ -7044,18 +7037,18 @@
         <v>53</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -7067,7 +7060,7 @@
         <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
@@ -7076,10 +7069,10 @@
         <v>53</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7087,7 +7080,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -7099,7 +7092,7 @@
         <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
@@ -7108,18 +7101,18 @@
         <v>53</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -7128,10 +7121,10 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>6</v>
@@ -7140,18 +7133,18 @@
         <v>53</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -7160,10 +7153,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>6</v>
@@ -7172,18 +7165,18 @@
         <v>53</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -7192,10 +7185,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>6</v>
@@ -7204,18 +7197,18 @@
         <v>53</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -7227,7 +7220,7 @@
         <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>6</v>
@@ -7236,10 +7229,10 @@
         <v>7</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7247,7 +7240,7 @@
         <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -7259,7 +7252,7 @@
         <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>6</v>
@@ -7268,18 +7261,18 @@
         <v>7</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>27</v>
@@ -7288,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>6</v>
@@ -7300,18 +7293,18 @@
         <v>7</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -7323,27 +7316,27 @@
         <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -7355,7 +7348,7 @@
         <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>6</v>
@@ -7364,18 +7357,18 @@
         <v>53</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -7387,7 +7380,7 @@
         <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>6</v>
@@ -7396,18 +7389,18 @@
         <v>53</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -7416,30 +7409,30 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -7448,10 +7441,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>6</v>
@@ -7460,18 +7453,18 @@
         <v>53</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -7480,10 +7473,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>6</v>
@@ -7492,19 +7485,19 @@
         <v>53</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -7513,10 +7506,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>6</v>
@@ -7525,18 +7518,18 @@
         <v>53</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -7545,10 +7538,10 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>6</v>
@@ -7557,18 +7550,18 @@
         <v>53</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -7577,10 +7570,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>6</v>
@@ -7589,18 +7582,18 @@
         <v>53</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -7609,10 +7602,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
@@ -7621,18 +7614,18 @@
         <v>53</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -7644,7 +7637,7 @@
         <v>43</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>6</v>
@@ -7653,18 +7646,18 @@
         <v>53</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -7676,7 +7669,7 @@
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>6</v>
@@ -7685,10 +7678,10 @@
         <v>7</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7696,7 +7689,7 @@
         <v>93</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -7705,22 +7698,22 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7728,7 +7721,7 @@
         <v>93</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -7740,7 +7733,7 @@
         <v>43</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>6</v>
@@ -7749,18 +7742,18 @@
         <v>7</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -7769,10 +7762,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>6</v>
@@ -7781,18 +7774,18 @@
         <v>53</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -7804,7 +7797,7 @@
         <v>138</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>6</v>
@@ -7813,18 +7806,18 @@
         <v>7</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -7833,30 +7826,30 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -7865,10 +7858,10 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>6</v>
@@ -7877,18 +7870,18 @@
         <v>7</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -7897,22 +7890,22 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -7920,7 +7913,7 @@
         <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>27</v>
@@ -7929,10 +7922,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>6</v>
@@ -7941,18 +7934,18 @@
         <v>7</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -7964,7 +7957,7 @@
         <v>141</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>6</v>
@@ -7973,18 +7966,18 @@
         <v>7</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -7993,10 +7986,10 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>6</v>
@@ -8005,18 +7998,18 @@
         <v>7</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -8025,10 +8018,10 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>6</v>
@@ -8037,18 +8030,18 @@
         <v>53</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -8057,10 +8050,10 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>6</v>
@@ -8069,18 +8062,18 @@
         <v>7</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -8089,10 +8082,10 @@
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
@@ -8101,18 +8094,18 @@
         <v>7</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -8124,27 +8117,27 @@
         <v>132</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -8153,10 +8146,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>6</v>
@@ -8165,18 +8158,18 @@
         <v>7</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -8185,10 +8178,10 @@
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>6</v>
@@ -8197,15 +8190,15 @@
         <v>7</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>100</v>
@@ -8220,27 +8213,27 @@
         <v>112</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -8249,30 +8242,30 @@
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -8284,7 +8277,7 @@
         <v>28</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
@@ -8293,18 +8286,18 @@
         <v>53</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -8313,10 +8306,10 @@
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
@@ -8325,18 +8318,18 @@
         <v>53</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -8345,10 +8338,10 @@
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
@@ -8357,18 +8350,18 @@
         <v>53</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -8380,7 +8373,7 @@
         <v>73</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>6</v>
@@ -8389,18 +8382,18 @@
         <v>53</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -8409,10 +8402,10 @@
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>6</v>
@@ -8421,18 +8414,18 @@
         <v>29</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -8441,10 +8434,10 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>6</v>
@@ -8453,10 +8446,10 @@
         <v>7</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -8464,7 +8457,7 @@
         <v>126</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -8473,10 +8466,10 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
@@ -8485,18 +8478,18 @@
         <v>7</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -8508,7 +8501,7 @@
         <v>115</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>6</v>
@@ -8517,18 +8510,18 @@
         <v>7</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -8537,10 +8530,10 @@
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>6</v>
@@ -8549,18 +8542,18 @@
         <v>53</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -8569,10 +8562,10 @@
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>6</v>
@@ -8581,18 +8574,18 @@
         <v>7</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -8604,7 +8597,7 @@
         <v>86</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>6</v>
@@ -8613,18 +8606,18 @@
         <v>7</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -8633,10 +8626,10 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>6</v>
@@ -8645,18 +8638,18 @@
         <v>7</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -8668,7 +8661,7 @@
         <v>35</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>6</v>
@@ -8677,18 +8670,18 @@
         <v>53</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -8697,10 +8690,10 @@
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>6</v>
@@ -8709,10 +8702,10 @@
         <v>7</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -8720,7 +8713,7 @@
         <v>146</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -8729,30 +8722,30 @@
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -8761,10 +8754,10 @@
         <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>6</v>
@@ -8773,18 +8766,18 @@
         <v>53</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -8793,10 +8786,10 @@
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>6</v>
@@ -8805,18 +8798,18 @@
         <v>29</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -8828,7 +8821,7 @@
         <v>86</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>6</v>
@@ -8837,10 +8830,10 @@
         <v>7</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
@@ -8848,7 +8841,7 @@
         <v>151</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -8857,30 +8850,30 @@
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -8892,7 +8885,7 @@
         <v>86</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>6</v>
@@ -8901,18 +8894,18 @@
         <v>7</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -8924,27 +8917,27 @@
         <v>67</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -8953,10 +8946,10 @@
         <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>6</v>
@@ -8965,18 +8958,18 @@
         <v>7</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -8988,7 +8981,7 @@
         <v>60</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>6</v>
@@ -8997,18 +8990,18 @@
         <v>7</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -9017,10 +9010,10 @@
         <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>6</v>
@@ -9029,18 +9022,18 @@
         <v>53</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -9049,30 +9042,30 @@
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -9080,11 +9073,11 @@
       <c r="D101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>494</v>
+      <c r="E101" s="12">
+        <v>53</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>6</v>
@@ -9093,18 +9086,18 @@
         <v>7</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -9113,10 +9106,10 @@
         <v>3</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>6</v>
@@ -9125,18 +9118,18 @@
         <v>53</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -9148,28 +9141,28 @@
         <v>43</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -9178,10 +9171,10 @@
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>6</v>
@@ -9190,18 +9183,18 @@
         <v>29</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -9210,10 +9203,10 @@
         <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>6</v>
@@ -9222,18 +9215,18 @@
         <v>53</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -9242,10 +9235,10 @@
         <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>6</v>
@@ -9254,18 +9247,18 @@
         <v>7</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -9277,27 +9270,27 @@
         <v>57</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -9305,11 +9298,11 @@
       <c r="D109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>515</v>
+      <c r="E109" s="12">
+        <v>68</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>6</v>
@@ -9318,18 +9311,18 @@
         <v>7</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -9338,10 +9331,10 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>6</v>
@@ -9350,18 +9343,18 @@
         <v>7</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -9373,27 +9366,27 @@
         <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -9402,10 +9395,10 @@
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>6</v>
@@ -9414,18 +9407,18 @@
         <v>7</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -9437,27 +9430,27 @@
         <v>138</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -9466,10 +9459,10 @@
         <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>6</v>
@@ -9478,18 +9471,18 @@
         <v>29</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -9501,27 +9494,27 @@
         <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -9530,10 +9523,10 @@
         <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>6</v>
@@ -9542,18 +9535,18 @@
         <v>7</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -9562,30 +9555,30 @@
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -9594,30 +9587,30 @@
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -9626,30 +9619,30 @@
         <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -9661,7 +9654,7 @@
         <v>158</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>6</v>
@@ -9670,18 +9663,18 @@
         <v>29</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -9693,27 +9686,27 @@
         <v>35</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -9722,10 +9715,10 @@
         <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>6</v>
@@ -9734,18 +9727,18 @@
         <v>29</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -9754,30 +9747,30 @@
         <v>3</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G123" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I123" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -9789,7 +9782,7 @@
         <v>86</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>6</v>
@@ -9798,18 +9791,18 @@
         <v>7</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -9818,10 +9811,10 @@
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>6</v>
@@ -9830,18 +9823,18 @@
         <v>53</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -9850,30 +9843,30 @@
         <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G126" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I126" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -9882,30 +9875,30 @@
         <v>3</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I127" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>27</v>
@@ -9914,30 +9907,30 @@
         <v>3</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I128" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -9949,27 +9942,27 @@
         <v>91</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I129" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -9981,27 +9974,27 @@
         <v>86</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I130" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -10010,30 +10003,30 @@
         <v>3</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I131" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -10045,27 +10038,27 @@
         <v>60</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G132" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I132" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -10077,19 +10070,19 @@
         <v>115</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I133" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -10114,48 +10107,48 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" t="s">
         <v>498</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>499</v>
       </c>
-      <c r="C1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>500</v>
-      </c>
-      <c r="G1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -10170,27 +10163,27 @@
         <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -10202,30 +10195,30 @@
         <v>115</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -10234,33 +10227,33 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -10272,30 +10265,30 @@
         <v>138</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -10304,22 +10297,22 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -10342,42 +10335,42 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -10389,7 +10382,7 @@
         <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -10398,18 +10391,18 @@
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -10418,30 +10411,30 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -10450,30 +10443,30 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -10482,30 +10475,30 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -10514,30 +10507,30 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
@@ -10546,30 +10539,30 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -10584,24 +10577,24 @@
         <v>74</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -10613,19 +10606,19 @@
         <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -10637,7 +10630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13432EB9-12D1-461D-8E87-0C40A7048F1D}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -10650,51 +10643,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -10703,36 +10696,36 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -10744,33 +10737,33 @@
         <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -10779,16 +10772,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -10797,18 +10790,18 @@
         <v>53</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -10820,10 +10813,10 @@
         <v>141</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>50</v>
@@ -10840,13 +10833,13 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -10855,13 +10848,13 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>74</v>
@@ -10878,13 +10871,13 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -10896,33 +10889,33 @@
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -10931,16 +10924,16 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
@@ -10949,18 +10942,18 @@
         <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -10972,33 +10965,33 @@
         <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -11010,13 +11003,13 @@
         <v>102</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
@@ -11025,18 +11018,18 @@
         <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -11048,13 +11041,13 @@
         <v>107</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>13</v>
@@ -11063,18 +11056,18 @@
         <v>14</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>27</v>
@@ -11083,36 +11076,36 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -11124,10 +11117,10 @@
         <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>47</v>
@@ -11144,13 +11137,13 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -11159,16 +11152,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>6</v>
@@ -11182,13 +11175,13 @@
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>2</v>
@@ -11200,10 +11193,10 @@
         <v>91</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>19</v>
@@ -11220,13 +11213,13 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -11238,13 +11231,13 @@
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
@@ -11253,18 +11246,18 @@
         <v>7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
@@ -11276,33 +11269,33 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -11311,36 +11304,36 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
@@ -11349,13 +11342,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>83</v>
@@ -11372,13 +11365,13 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
@@ -11387,16 +11380,16 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>6</v>
@@ -11405,18 +11398,18 @@
         <v>7</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>2</v>
@@ -11428,33 +11421,33 @@
         <v>86</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L21" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>2</v>
@@ -11466,10 +11459,10 @@
         <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>50</v>
@@ -11486,13 +11479,13 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>2</v>
@@ -11504,13 +11497,13 @@
         <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>6</v>
@@ -11519,18 +11512,18 @@
         <v>7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>2</v>
@@ -11539,16 +11532,16 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
@@ -11557,18 +11550,18 @@
         <v>7</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>2</v>
@@ -11577,16 +11570,16 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>6</v>
@@ -11595,18 +11588,18 @@
         <v>53</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
@@ -11618,10 +11611,10 @@
         <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>12</v>
@@ -11638,13 +11631,13 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>2</v>
@@ -11656,13 +11649,13 @@
         <v>67</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>6</v>
@@ -11671,18 +11664,18 @@
         <v>7</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>2</v>
@@ -11691,16 +11684,16 @@
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>6</v>
@@ -11709,18 +11702,18 @@
         <v>7</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>2</v>
@@ -11729,13 +11722,13 @@
         <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>47</v>
@@ -11752,31 +11745,31 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>711</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>6</v>
@@ -11785,18 +11778,18 @@
         <v>7</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>27</v>
@@ -11808,19 +11801,19 @@
         <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>8</v>
@@ -11828,13 +11821,13 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -11846,13 +11839,13 @@
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6</v>
@@ -11861,18 +11854,18 @@
         <v>7</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -11881,16 +11874,16 @@
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>6</v>
@@ -11899,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
@@ -11907,10 +11900,10 @@
         <v>45594</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -11919,36 +11912,36 @@
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -11957,16 +11950,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>6</v>
@@ -11975,18 +11968,18 @@
         <v>7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>2</v>
@@ -11995,16 +11988,16 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>6</v>
@@ -12013,18 +12006,18 @@
         <v>53</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
@@ -12033,13 +12026,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>50</v>
@@ -12048,7 +12041,7 @@
         <v>6</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>40</v>
@@ -12056,13 +12049,13 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>2</v>
@@ -12071,16 +12064,16 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>6</v>
@@ -12089,18 +12082,18 @@
         <v>7</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -12109,22 +12102,22 @@
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>40</v>
@@ -12132,13 +12125,13 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
@@ -12150,10 +12143,10 @@
         <v>28</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>47</v>
@@ -12162,7 +12155,7 @@
         <v>154</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
@@ -12170,13 +12163,13 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>2</v>
@@ -12188,19 +12181,19 @@
         <v>73</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>54</v>
@@ -12208,13 +12201,13 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>2</v>
@@ -12223,13 +12216,13 @@
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>83</v>
@@ -12246,13 +12239,13 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>2</v>
@@ -12264,13 +12257,13 @@
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>6</v>
@@ -12279,18 +12272,18 @@
         <v>7</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>2</v>
@@ -12302,19 +12295,19 @@
         <v>64</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>54</v>
@@ -12322,13 +12315,13 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>2</v>
@@ -12337,36 +12330,36 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>2</v>
@@ -12375,25 +12368,25 @@
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L46" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -12405,7 +12398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E0BEF5-7B1B-4CCD-8801-5EBD6BFDBE71}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -12413,51 +12406,51 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -12466,74 +12459,74 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -12545,13 +12538,13 @@
         <v>138</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -12560,18 +12553,18 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -12583,19 +12576,19 @@
         <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>8</v>
@@ -12603,13 +12596,13 @@
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>2</v>
@@ -12618,22 +12611,22 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>8</v>
@@ -12641,13 +12634,13 @@
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>
@@ -12656,36 +12649,36 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>2</v>
@@ -12697,19 +12690,19 @@
         <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>40</v>
@@ -12717,13 +12710,13 @@
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
@@ -12732,36 +12725,36 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -12773,19 +12766,19 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>40</v>
@@ -12793,13 +12786,13 @@
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>2</v>
@@ -12808,25 +12801,25 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -12846,35 +12839,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12882,10 +12875,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -12893,76 +12886,76 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12970,10 +12963,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -12981,43 +12974,43 @@
         <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13025,21 +13018,21 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13047,10 +13040,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13058,10 +13051,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13069,10 +13062,10 @@
         <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13080,10 +13073,10 @@
         <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
